--- a/predict/2023/saved/week5.xlsx
+++ b/predict/2023/saved/week5.xlsx
@@ -64,735 +64,738 @@
     <t>0.0</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>TEM</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>TLSA</t>
+  </si>
+  <si>
+    <t>88.6</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>JVille St</t>
+  </si>
+  <si>
+    <t>JVST</t>
+  </si>
+  <si>
+    <t>74.6</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Sam Houston</t>
+  </si>
+  <si>
+    <t>SHSU</t>
+  </si>
+  <si>
+    <t>25.4</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2023-09-29</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>UTAH</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>ORE</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>LOU</t>
+  </si>
+  <si>
+    <t>18.4</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>NC State</t>
+  </si>
+  <si>
+    <t>NCSU</t>
+  </si>
+  <si>
+    <t>81.6</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>64.1</t>
+  </si>
+  <si>
+    <t>UTEP</t>
+  </si>
+  <si>
+    <t>35.9</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>17.4</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>82.6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2023-09-30</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>AUB</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>MICH</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>NEB</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>Northwestern</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Temple</t>
-  </si>
-  <si>
-    <t>TEM</t>
-  </si>
-  <si>
-    <t>11.4</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Tulsa</t>
-  </si>
-  <si>
-    <t>TLSA</t>
-  </si>
-  <si>
-    <t>88.6</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>KU</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>98.4</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Penn State</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>73.8</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>26.2</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>WASH</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>ARIZ</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>63.1</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>COLO</t>
+  </si>
+  <si>
+    <t>36.9</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>STAN</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>83.0</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>DUKE</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>ALA</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>MIZ</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>Ole Miss</t>
+  </si>
+  <si>
+    <t>MISS</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
+    <t>ISU</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>91.4</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>TENN</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>FLA</t>
+  </si>
+  <si>
+    <t>24.5</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>75.5</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>NEV</t>
+  </si>
+  <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
+    <t>WAKE</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>TA&amp;M</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>ARK</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>MINN</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Utah State</t>
+  </si>
+  <si>
+    <t>USU</t>
+  </si>
+  <si>
+    <t>UConn</t>
+  </si>
+  <si>
+    <t>CONN</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>CLEM</t>
+  </si>
+  <si>
+    <t>97.3</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>UAB</t>
+  </si>
+  <si>
+    <t>Tulane</t>
+  </si>
+  <si>
+    <t>TULN</t>
+  </si>
+  <si>
+    <t>South Alabama</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>James Madison</t>
+  </si>
+  <si>
+    <t>JMU</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>BUFF</t>
+  </si>
+  <si>
+    <t>42.6</t>
+  </si>
+  <si>
+    <t>Akron</t>
+  </si>
+  <si>
+    <t>AKR</t>
+  </si>
+  <si>
+    <t>57.4</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>JVille St</t>
-  </si>
-  <si>
-    <t>JVST</t>
-  </si>
-  <si>
-    <t>74.6</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Sam Houston</t>
-  </si>
-  <si>
-    <t>SHSU</t>
-  </si>
-  <si>
-    <t>25.4</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2023-09-29</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>UTAH</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>ORE</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Louisville</t>
-  </si>
-  <si>
-    <t>LOU</t>
-  </si>
-  <si>
-    <t>18.4</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>NC State</t>
-  </si>
-  <si>
-    <t>NCSU</t>
-  </si>
-  <si>
-    <t>81.6</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>64.1</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>UTEP</t>
-  </si>
-  <si>
-    <t>35.9</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>CIN</t>
-  </si>
-  <si>
-    <t>17.4</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>BYU</t>
-  </si>
-  <si>
-    <t>82.6</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2023-09-30</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Auburn</t>
-  </si>
-  <si>
-    <t>AUB</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>MICH</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>NEB</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>KU</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>TEX</t>
-  </si>
-  <si>
-    <t>98.4</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>Penn State</t>
-  </si>
-  <si>
-    <t>PSU</t>
-  </si>
-  <si>
-    <t>73.8</t>
-  </si>
-  <si>
-    <t>26.2</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>WASH</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>ARIZ</t>
+    <t>E Michigan</t>
+  </si>
+  <si>
+    <t>EMU</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>NC Central</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the second team [NC Central], Calculate() - [DIVISION 1 FBS] team playing [?] team, E Michigan wins</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>UVA</t>
+  </si>
+  <si>
+    <t>20.7</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>79.3</t>
+  </si>
+  <si>
+    <t>Miami OH</t>
+  </si>
+  <si>
+    <t>M-OH</t>
+  </si>
+  <si>
+    <t>95.0</t>
+  </si>
+  <si>
+    <t>Kent State</t>
+  </si>
+  <si>
+    <t>KENT</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>Arizona St</t>
+  </si>
+  <si>
+    <t>ASU</t>
+  </si>
+  <si>
+    <t>12.6</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>CAL</t>
+  </si>
+  <si>
+    <t>87.4</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>IU</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>ILL</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>PUR</t>
+  </si>
+  <si>
+    <t>Wagner</t>
+  </si>
+  <si>
+    <t>Rutgers</t>
+  </si>
+  <si>
+    <t>RUTG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Wagner], Calculate() - [?] team playing [DIVISION 1 FBS] team, Rutgers wins</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Bowling Green</t>
+  </si>
+  <si>
+    <t>BGSU</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>TTU</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>BAY</t>
+  </si>
+  <si>
+    <t>UCF</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>88.1</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>MASS</t>
+  </si>
+  <si>
+    <t>11.9</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>South Florida</t>
+  </si>
+  <si>
+    <t>USF</t>
+  </si>
+  <si>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>NAVY</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Old Dominion</t>
+  </si>
+  <si>
+    <t>ODU</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>MRSH</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Ball State</t>
+  </si>
+  <si>
+    <t>BALL</t>
+  </si>
+  <si>
+    <t>Northern Iowa</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>TOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Northern Iowa], Calculate() - [?] team playing [DIVISION 1 FBS] team, Toledo wins</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Boise St</t>
+  </si>
+  <si>
+    <t>BOIS</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>MEM</t>
   </si>
   <si>
     <t>46</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>USC</t>
-  </si>
-  <si>
-    <t>63.1</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>COLO</t>
-  </si>
-  <si>
-    <t>36.9</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Stanford</t>
-  </si>
-  <si>
-    <t>STAN</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Notre Dame</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>83.0</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>DUKE</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>ALA</t>
-  </si>
-  <si>
-    <t>57.4</t>
-  </si>
-  <si>
-    <t>Ole Miss</t>
-  </si>
-  <si>
-    <t>MISS</t>
-  </si>
-  <si>
-    <t>42.6</t>
-  </si>
-  <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>Iowa State</t>
-  </si>
-  <si>
-    <t>ISU</t>
-  </si>
-  <si>
-    <t>8.6</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>OU</t>
-  </si>
-  <si>
-    <t>91.4</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>TENN</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>FLA</t>
-  </si>
-  <si>
-    <t>24.5</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>75.5</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>MIZ</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>VAN</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>NEV</t>
-  </si>
-  <si>
-    <t>Wake Forest</t>
-  </si>
-  <si>
-    <t>WAKE</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M</t>
-  </si>
-  <si>
-    <t>TA&amp;M</t>
-  </si>
-  <si>
-    <t>73.0</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>ARK</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>MINN</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Utah State</t>
-  </si>
-  <si>
-    <t>USU</t>
-  </si>
-  <si>
-    <t>UConn</t>
-  </si>
-  <si>
-    <t>CONN</t>
-  </si>
-  <si>
-    <t>Clemson</t>
-  </si>
-  <si>
-    <t>CLEM</t>
-  </si>
-  <si>
-    <t>97.3</t>
-  </si>
-  <si>
-    <t>Syracuse</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>UAB</t>
-  </si>
-  <si>
-    <t>Tulane</t>
-  </si>
-  <si>
-    <t>TULN</t>
-  </si>
-  <si>
-    <t>South Alabama</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>James Madison</t>
-  </si>
-  <si>
-    <t>JMU</t>
-  </si>
-  <si>
-    <t>Buffalo</t>
-  </si>
-  <si>
-    <t>BUFF</t>
-  </si>
-  <si>
-    <t>Akron</t>
-  </si>
-  <si>
-    <t>AKR</t>
-  </si>
-  <si>
-    <t>E Michigan</t>
-  </si>
-  <si>
-    <t>EMU</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>NC Central</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the second team [NC Central], Calculate() - [DIVISION 1 FBS] team playing [?] team, E Michigan wins</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>UVA</t>
-  </si>
-  <si>
-    <t>20.7</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t>79.3</t>
-  </si>
-  <si>
-    <t>Miami OH</t>
-  </si>
-  <si>
-    <t>M-OH</t>
-  </si>
-  <si>
-    <t>95.0</t>
-  </si>
-  <si>
-    <t>Kent State</t>
-  </si>
-  <si>
-    <t>KENT</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>Arizona St</t>
-  </si>
-  <si>
-    <t>ASU</t>
-  </si>
-  <si>
-    <t>12.6</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>CAL</t>
-  </si>
-  <si>
-    <t>87.4</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>IU</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>ILL</t>
-  </si>
-  <si>
-    <t>Purdue</t>
-  </si>
-  <si>
-    <t>PUR</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Wagner</t>
-  </si>
-  <si>
-    <t>Rutgers</t>
-  </si>
-  <si>
-    <t>RUTG</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Wagner], Calculate() - [?] team playing [DIVISION 1 FBS] team, Rutgers wins</t>
-  </si>
-  <si>
-    <t>Bowling Green</t>
-  </si>
-  <si>
-    <t>BGSU</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
-    <t>TTU</t>
-  </si>
-  <si>
-    <t>Baylor</t>
-  </si>
-  <si>
-    <t>BAY</t>
-  </si>
-  <si>
-    <t>UCF</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>88.1</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>MASS</t>
-  </si>
-  <si>
-    <t>11.9</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>South Florida</t>
-  </si>
-  <si>
-    <t>USF</t>
-  </si>
-  <si>
-    <t>Navy</t>
-  </si>
-  <si>
-    <t>NAVY</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Old Dominion</t>
-  </si>
-  <si>
-    <t>ODU</t>
-  </si>
-  <si>
-    <t>Marshall</t>
-  </si>
-  <si>
-    <t>MRSH</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Ball State</t>
-  </si>
-  <si>
-    <t>BALL</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Northern Iowa</t>
-  </si>
-  <si>
-    <t>Toledo</t>
-  </si>
-  <si>
-    <t>TOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Northern Iowa], Calculate() - [?] team playing [DIVISION 1 FBS] team, Toledo wins</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Boise St</t>
-  </si>
-  <si>
-    <t>BOIS</t>
-  </si>
-  <si>
-    <t>Memphis</t>
-  </si>
-  <si>
-    <t>MEM</t>
-  </si>
-  <si>
     <t>Hawaii</t>
   </si>
   <si>
@@ -845,9 +848,6 @@
   </si>
   <si>
     <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Abilene Chrstn], Calculate() - [?] team playing [DIVISION 1 FBS] team, North Texas wins</t>
-  </si>
-  <si>
-    <t>50</t>
   </si>
   <si>
     <t>Coastal Car</t>
@@ -1418,37 +1418,37 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
       </c>
       <c r="G4">
         <v>-8.303000000000001</v>
       </c>
       <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
         <v>35</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>36</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>37</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1468,7 +1468,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>30.097</v>
@@ -1483,62 +1483,62 @@
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6">
         <v>11.897</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G7">
         <v>-4.903</v>
@@ -1588,132 +1588,132 @@
         <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
         <v>70</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>71</v>
-      </c>
-      <c r="D9" t="s">
-        <v>72</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G9">
         <v>-20.403</v>
       </c>
       <c r="H9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" t="s">
         <v>74</v>
-      </c>
-      <c r="I9" t="s">
-        <v>75</v>
       </c>
       <c r="J9" t="s">
         <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
         <v>76</v>
       </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>77</v>
-      </c>
-      <c r="D10" t="s">
-        <v>78</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>-25.203</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s">
         <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
         <v>82</v>
       </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>83</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>84</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>85</v>
-      </c>
-      <c r="F11" t="s">
-        <v>86</v>
       </c>
       <c r="G11">
         <v>19.697</v>
       </c>
       <c r="H11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" t="s">
         <v>87</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>88</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>89</v>
-      </c>
-      <c r="K11" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
         <v>91</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>92</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>93</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
       </c>
       <c r="G12">
         <v>-8.202999999999999</v>
@@ -1728,50 +1728,50 @@
         <v>94</v>
       </c>
       <c r="K12" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="G13">
         <v>50.697</v>
       </c>
       <c r="H13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
         <v>102</v>
@@ -1783,30 +1783,30 @@
         <v>103</v>
       </c>
       <c r="F14" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="G14">
         <v>-4.603</v>
       </c>
       <c r="H14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" t="s">
         <v>105</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>106</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>107</v>
-      </c>
-      <c r="K14" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
@@ -1833,155 +1833,155 @@
         <v>15</v>
       </c>
       <c r="K15" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
         <v>111</v>
       </c>
-      <c r="B16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>112</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>113</v>
       </c>
-      <c r="E16" t="s">
-        <v>114</v>
-      </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G16">
         <v>-12.803</v>
       </c>
       <c r="H16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" t="s">
         <v>115</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>116</v>
       </c>
-      <c r="J16" t="s">
-        <v>117</v>
-      </c>
       <c r="K16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" t="s">
         <v>118</v>
       </c>
-      <c r="B17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17">
+        <v>4.697</v>
+      </c>
+      <c r="H17" t="s">
         <v>119</v>
       </c>
-      <c r="D17" t="s">
+      <c r="I17" t="s">
         <v>120</v>
       </c>
-      <c r="E17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17">
-        <v>-3.003</v>
-      </c>
-      <c r="H17" t="s">
-        <v>122</v>
-      </c>
-      <c r="I17" t="s">
-        <v>123</v>
-      </c>
       <c r="J17" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="G18">
         <v>0.697</v>
       </c>
       <c r="H18" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" t="s">
         <v>122</v>
       </c>
-      <c r="I18" t="s">
-        <v>123</v>
-      </c>
-      <c r="J18" t="s">
-        <v>126</v>
-      </c>
       <c r="K18" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" t="s">
         <v>127</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>128</v>
       </c>
-      <c r="E19" t="s">
-        <v>129</v>
-      </c>
       <c r="F19" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="G19">
         <v>16.997</v>
       </c>
       <c r="H19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" t="s">
         <v>130</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>131</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>132</v>
-      </c>
-      <c r="K19" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
         <v>133</v>
@@ -1990,10 +1990,10 @@
         <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="G20">
         <v>16.797</v>
@@ -2005,74 +2005,74 @@
         <v>136</v>
       </c>
       <c r="J20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K20" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
         <v>137</v>
       </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>138</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>139</v>
       </c>
-      <c r="E21" t="s">
-        <v>140</v>
-      </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="G21">
         <v>9.397</v>
       </c>
       <c r="H21" t="s">
+        <v>140</v>
+      </c>
+      <c r="I21" t="s">
         <v>141</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>142</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>143</v>
-      </c>
-      <c r="K21" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E22" t="s">
         <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G22">
         <v>-29.203</v>
       </c>
       <c r="H22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J22" t="s">
         <v>15</v>
@@ -2083,45 +2083,45 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" t="s">
         <v>149</v>
-      </c>
-      <c r="D23" t="s">
-        <v>150</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="G23">
         <v>23.797</v>
       </c>
       <c r="H23" t="s">
+        <v>150</v>
+      </c>
+      <c r="I23" t="s">
         <v>151</v>
-      </c>
-      <c r="I23" t="s">
-        <v>152</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
         <v>153</v>
@@ -2133,7 +2133,7 @@
         <v>155</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="G24">
         <v>-7.703</v>
@@ -2148,94 +2148,94 @@
         <v>158</v>
       </c>
       <c r="K24" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="G25">
         <v>9.297000000000001</v>
       </c>
       <c r="H25" t="s">
+        <v>159</v>
+      </c>
+      <c r="I25" t="s">
         <v>160</v>
       </c>
-      <c r="I25" t="s">
-        <v>161</v>
-      </c>
       <c r="J25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K25" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
         <v>162</v>
       </c>
-      <c r="B26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>163</v>
-      </c>
-      <c r="D26" t="s">
-        <v>164</v>
       </c>
       <c r="E26" t="s">
         <v>59</v>
       </c>
       <c r="F26" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="G26">
         <v>4.897</v>
       </c>
       <c r="H26" t="s">
+        <v>164</v>
+      </c>
+      <c r="I26" t="s">
         <v>165</v>
       </c>
-      <c r="I26" t="s">
-        <v>166</v>
-      </c>
       <c r="J26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K26" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" t="s">
         <v>167</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>168</v>
-      </c>
-      <c r="E27" t="s">
-        <v>169</v>
       </c>
       <c r="F27" t="s">
         <v>29</v>
@@ -2244,106 +2244,106 @@
         <v>-19.003</v>
       </c>
       <c r="H27" t="s">
+        <v>169</v>
+      </c>
+      <c r="I27" t="s">
         <v>170</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>171</v>
       </c>
-      <c r="J27" t="s">
-        <v>172</v>
-      </c>
       <c r="K27" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E28" t="s">
         <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G28">
         <v>22.097</v>
       </c>
       <c r="H28" t="s">
+        <v>173</v>
+      </c>
+      <c r="I28" t="s">
         <v>174</v>
-      </c>
-      <c r="I28" t="s">
-        <v>175</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
       </c>
       <c r="K28" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" t="s">
         <v>176</v>
       </c>
-      <c r="D29" t="s">
-        <v>177</v>
-      </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G29">
         <v>11.797</v>
       </c>
       <c r="H29" t="s">
+        <v>177</v>
+      </c>
+      <c r="I29" t="s">
         <v>178</v>
       </c>
-      <c r="I29" t="s">
-        <v>179</v>
-      </c>
       <c r="J29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K29" t="s">
-        <v>159</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" t="s">
         <v>180</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>181</v>
       </c>
-      <c r="E30" t="s">
-        <v>124</v>
-      </c>
       <c r="F30" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G30">
         <v>3.197</v>
@@ -2355,240 +2355,240 @@
         <v>183</v>
       </c>
       <c r="J30" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="K30" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D31" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J31" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="L31" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D32" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E32" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G32">
         <v>10.397</v>
       </c>
       <c r="H32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I32" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J32" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K32" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D33" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E33" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F33" t="s">
-        <v>162</v>
+        <v>33</v>
       </c>
       <c r="G33">
         <v>-18.203</v>
       </c>
       <c r="H33" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I33" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J33" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K33" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D34" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E34" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F34" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G34">
         <v>14.897</v>
       </c>
       <c r="H34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I34" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K34" t="s">
-        <v>104</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E35" t="s">
         <v>15</v>
       </c>
       <c r="F35" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="G35">
         <v>21.897</v>
       </c>
       <c r="H35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J35" t="s">
         <v>19</v>
       </c>
       <c r="K35" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="G36">
         <v>8.297000000000001</v>
       </c>
       <c r="H36" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I36" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K36" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>217</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
         <v>218</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s">
         <v>219</v>
@@ -2597,10 +2597,10 @@
         <v>220</v>
       </c>
       <c r="J37" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K37" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="L37" t="s">
         <v>221</v>
@@ -2608,115 +2608,115 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>222</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D38" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E38" t="s">
         <v>15</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="G38">
         <v>46.497</v>
       </c>
       <c r="H38" t="s">
+        <v>70</v>
+      </c>
+      <c r="I38" t="s">
         <v>71</v>
-      </c>
-      <c r="I38" t="s">
-        <v>72</v>
       </c>
       <c r="J38" t="s">
         <v>19</v>
       </c>
       <c r="K38" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D39" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G39">
         <v>19.497</v>
       </c>
       <c r="H39" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I39" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>224</v>
+        <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E40" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F40" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="G40">
         <v>18.197</v>
       </c>
       <c r="H40" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I40" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J40" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K40" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
         <v>156</v>
@@ -2725,7 +2725,7 @@
         <v>157</v>
       </c>
       <c r="E41" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F41" t="s">
         <v>29</v>
@@ -2734,106 +2734,106 @@
         <v>-15.303</v>
       </c>
       <c r="H41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I41" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J41" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K41" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D42" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F42" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="G42">
         <v>-0.003</v>
       </c>
       <c r="H42" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I42" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K42" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G43">
         <v>8.397</v>
       </c>
       <c r="H43" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I43" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K43" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D44" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E44" t="s">
         <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G44">
         <v>22.897</v>
@@ -2848,27 +2848,27 @@
         <v>19</v>
       </c>
       <c r="K44" t="s">
-        <v>159</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
         <v>250</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s">
         <v>251</v>
@@ -2877,10 +2877,10 @@
         <v>252</v>
       </c>
       <c r="J45" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K45" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="L45" t="s">
         <v>253</v>
@@ -2891,7 +2891,7 @@
         <v>254</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
         <v>255</v>
@@ -2903,7 +2903,7 @@
         <v>59</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="G46">
         <v>4.797</v>
@@ -2915,158 +2915,158 @@
         <v>258</v>
       </c>
       <c r="J46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K46" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>259</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D47" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E47" t="s">
         <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="G47">
         <v>24.197</v>
       </c>
       <c r="H47" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I47" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J47" t="s">
         <v>19</v>
       </c>
       <c r="K47" t="s">
-        <v>108</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D48" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E48" t="s">
         <v>15</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="G48">
         <v>25.897</v>
       </c>
       <c r="H48" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I48" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J48" t="s">
         <v>19</v>
       </c>
       <c r="K48" t="s">
-        <v>29</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D49" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E49" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G49">
         <v>15.197</v>
       </c>
       <c r="H49" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I49" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J49" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K49" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E50" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I50" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J50" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K50" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="L50" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>277</v>
+        <v>101</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
         <v>278</v>
@@ -3078,22 +3078,22 @@
         <v>15</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="G51">
         <v>47.197</v>
       </c>
       <c r="H51" t="s">
+        <v>70</v>
+      </c>
+      <c r="I51" t="s">
         <v>71</v>
-      </c>
-      <c r="I51" t="s">
-        <v>72</v>
       </c>
       <c r="J51" t="s">
         <v>19</v>
       </c>
       <c r="K51" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3101,7 +3101,7 @@
         <v>280</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C52" t="s">
         <v>281</v>
@@ -3119,16 +3119,16 @@
         <v>34.497</v>
       </c>
       <c r="H52" t="s">
+        <v>70</v>
+      </c>
+      <c r="I52" t="s">
         <v>71</v>
-      </c>
-      <c r="I52" t="s">
-        <v>72</v>
       </c>
       <c r="J52" t="s">
         <v>19</v>
       </c>
       <c r="K52" t="s">
-        <v>90</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3136,7 +3136,7 @@
         <v>283</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53" t="s">
         <v>284</v>
@@ -3145,22 +3145,22 @@
         <v>285</v>
       </c>
       <c r="E53" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="G53" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s">
         <v>286</v>
       </c>
       <c r="J53" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="K53" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="L53" t="s">
         <v>287</v>
@@ -3171,31 +3171,31 @@
         <v>288</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s">
         <v>289</v>
       </c>
       <c r="E54" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s">
+        <v>104</v>
+      </c>
+      <c r="I54" t="s">
         <v>105</v>
       </c>
-      <c r="I54" t="s">
-        <v>106</v>
-      </c>
       <c r="J54" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K54" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="L54" t="s">
         <v>290</v>
@@ -3206,19 +3206,19 @@
         <v>291</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" t="s">
         <v>77</v>
-      </c>
-      <c r="D55" t="s">
-        <v>78</v>
       </c>
       <c r="E55" t="s">
         <v>19</v>
       </c>
       <c r="F55" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="G55">
         <v>-23.203</v>
@@ -3233,7 +3233,7 @@
         <v>15</v>
       </c>
       <c r="K55" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3241,7 +3241,7 @@
         <v>294</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s">
         <v>295</v>
@@ -3253,7 +3253,7 @@
         <v>15</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G56">
         <v>37.497</v>
@@ -3276,7 +3276,7 @@
         <v>298</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
         <v>299</v>
@@ -3288,22 +3288,22 @@
         <v>301</v>
       </c>
       <c r="F57" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G57">
         <v>5.897</v>
       </c>
       <c r="H57" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I57" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J57" t="s">
         <v>302</v>
       </c>
       <c r="K57" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3311,7 +3311,7 @@
         <v>303</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C58" t="s">
         <v>304</v>
@@ -3323,7 +3323,7 @@
         <v>301</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="G58">
         <v>6.197</v>
@@ -3338,7 +3338,7 @@
         <v>302</v>
       </c>
       <c r="K58" t="s">
-        <v>162</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3346,7 +3346,7 @@
         <v>307</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s">
         <v>308</v>
@@ -3355,10 +3355,10 @@
         <v>309</v>
       </c>
       <c r="E59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F59" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="G59">
         <v>-17.103</v>
@@ -3370,10 +3370,10 @@
         <v>311</v>
       </c>
       <c r="J59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K59" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3381,7 +3381,7 @@
         <v>312</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C60" t="s">
         <v>313</v>
@@ -3393,7 +3393,7 @@
         <v>315</v>
       </c>
       <c r="F60" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G60">
         <v>17.397</v>
@@ -3408,7 +3408,7 @@
         <v>318</v>
       </c>
       <c r="K60" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
